--- a/climate-data/example-climate-data.xlsx
+++ b/climate-data/example-climate-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sr41756\workspaces\misc\germinate-data-templates\climate-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD117A8B-4DB5-43FA-B3B2-CA6D078FC82D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E06A5EF-AD33-49F9-BAAD-988DC0FE5B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5565" windowWidth="38700" windowHeight="15435" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="METADATA" sheetId="3" r:id="rId1"/>
@@ -116,9 +116,6 @@
     <t>AMZ</t>
   </si>
   <si>
-    <t>The "PHENOTYPES" sheet should contain a definition of the different phenotypic traits evaluated in your experiment. The "DATA" sheet should contain the phenotype values in a matrix format where the columns are the phenotype names and the rows are lines/germplasm names (ACCENUMB of the MCPD). Each cell should contain the phenotype value for the combination of phenotype and line/germplasm. Missing data should be represented by an empty cell (not NA or a dash). See the "DATA_EXAMPLE " sheet for an example. Also note, that we only deal with means, i.e. for each line/germplasm and phenotype there should only be one value. Replicates can be submitted across years by entereing them as different phenotype datasets. For example 'Phenotype Experiment 2016' and 'Phenotype Experiment 2017'.</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">If you have any queries or want to discuss your data or require assistance in filling in this template please contact us on </t>
     </r>
@@ -1641,6 +1638,9 @@
   </si>
   <si>
     <t>DE</t>
+  </si>
+  <si>
+    <t>The "CLIMATES" sheet should contain a definition of the different climactic variables evaluated in your experiment. The "DATA" sheet should contain the climate values in a matrix format where the columns are the climate names and the rows are lines/germplasm names (ACCENUMB of the MCPD). Each cell should contain the climate value for the combination of climate and line/germplasm. Missing data should be represented by an empty cell (not NA or a dash). See the "DATA_EXAMPLE " sheet for an example. Also note, that we only deal with means, i.e. for each line/germplasm and climate there should only be one value.</t>
   </si>
 </sst>
 </file>
@@ -2440,8 +2440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2457,24 +2457,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="C1" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -2482,81 +2482,81 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="17"/>
     </row>
     <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="C11" s="6"/>
     </row>
@@ -2565,7 +2565,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12" s="3"/>
     </row>
@@ -2577,12 +2577,12 @@
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
     </row>
-    <row r="15" spans="1:3" ht="180" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>25</v>
+        <v>529</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -2609,7 +2609,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2643,45 +2643,45 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
         <v>71</v>
-      </c>
-      <c r="H1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" t="s">
-        <v>78</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H3" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H4" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H5" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2719,90 +2719,90 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>49</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>50</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="18" t="s">
-        <v>53</v>
-      </c>
       <c r="G1" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="C2" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="D2" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="F2" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="18" t="s">
-        <v>59</v>
-      </c>
       <c r="G2" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="C3" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="G3" s="26" t="s">
         <v>83</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="C4" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="G4" s="26" t="s">
         <v>83</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2841,30 +2841,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>525</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2">
         <v>21</v>
@@ -2878,13 +2878,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>528</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>529</v>
       </c>
       <c r="D3" s="2">
         <v>157</v>
@@ -2956,124 +2956,124 @@
         <v>8</v>
       </c>
       <c r="I1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" t="s">
         <v>67</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="I3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -3137,33 +3137,33 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>74</v>
-      </c>
       <c r="C1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C2">
         <v>71.257798170000001</v>
@@ -3183,10 +3183,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C3">
         <v>71.166972479999998</v>
@@ -3206,10 +3206,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C4">
         <v>81.969724769999999</v>
@@ -3229,10 +3229,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C5">
         <v>65.707339450000006</v>
@@ -3252,10 +3252,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C6">
         <v>74.703669719999994</v>
@@ -3275,10 +3275,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C7">
         <v>73.083486239999999</v>
@@ -3298,10 +3298,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C8">
         <v>72.968807339999998</v>
@@ -3321,10 +3321,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C9">
         <v>76.782568810000001</v>
@@ -3344,10 +3344,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C10">
         <v>71.926605499999994</v>
@@ -3367,10 +3367,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C11">
         <v>68.669724770000002</v>
@@ -3390,10 +3390,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C12">
         <v>81.202752290000006</v>
@@ -3413,10 +3413,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C13">
         <v>70.068807340000006</v>
@@ -3436,10 +3436,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C14">
         <v>76.370642200000006</v>
@@ -3459,10 +3459,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C15">
         <v>76.220183489999997</v>
@@ -3482,10 +3482,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C16">
         <v>73.533027520000005</v>
@@ -3505,10 +3505,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C17">
         <v>75.496330279999995</v>
@@ -3528,10 +3528,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C18">
         <v>69.455045870000006</v>
@@ -3551,10 +3551,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C19">
         <v>82.181651380000005</v>
@@ -3574,10 +3574,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C20">
         <v>60.251376149999999</v>
@@ -3597,10 +3597,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C21">
         <v>73.72752294</v>
@@ -3620,10 +3620,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C22">
         <v>72.500917430000001</v>
@@ -3643,10 +3643,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C23">
         <v>68.874311930000005</v>
@@ -3666,10 +3666,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C24">
         <v>86.238532109999994</v>
@@ -3689,10 +3689,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C25">
         <v>72.380733950000007</v>
@@ -3712,10 +3712,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C26">
         <v>78.649541279999994</v>
@@ -3735,10 +3735,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C27">
         <v>74.407339449999995</v>
@@ -3758,10 +3758,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C28">
         <v>74.642201830000005</v>
@@ -3781,10 +3781,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C29">
         <v>84.869724770000005</v>
@@ -3804,10 +3804,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C30">
         <v>76.544036700000007</v>
@@ -3827,10 +3827,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C31">
         <v>65.731192660000005</v>
@@ -3850,10 +3850,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C32">
         <v>72.079816510000001</v>
@@ -3873,10 +3873,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C33">
         <v>85.031192660000002</v>
@@ -3896,10 +3896,10 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C34">
         <v>69.360550459999999</v>
@@ -3919,10 +3919,10 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C35">
         <v>67.743119269999994</v>
@@ -3942,10 +3942,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C36">
         <v>82.41100917</v>
@@ -3965,10 +3965,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B37" s="28" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C37">
         <v>83.985321099999993</v>
@@ -3988,10 +3988,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B38" s="28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C38">
         <v>72.256880730000006</v>
@@ -4011,10 +4011,10 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C39">
         <v>73.335779819999999</v>
@@ -4034,10 +4034,10 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C40">
         <v>69.388990829999997</v>
@@ -4057,10 +4057,10 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C41">
         <v>65.670642200000003</v>
@@ -4080,10 +4080,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B42" s="28" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C42">
         <v>82.538532110000006</v>
@@ -4103,10 +4103,10 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B43" s="28" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C43">
         <v>81.257798170000001</v>
@@ -4126,10 +4126,10 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C44">
         <v>76.030275230000001</v>
@@ -4149,10 +4149,10 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C45">
         <v>82.648623850000007</v>
@@ -4172,10 +4172,10 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C46">
         <v>74.932110089999995</v>
@@ -4195,10 +4195,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B47" s="28" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C47">
         <v>75.557798169999998</v>
@@ -4218,10 +4218,10 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C48">
         <v>65.368807340000004</v>
@@ -4241,10 +4241,10 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C49">
         <v>82.040366969999994</v>
@@ -4264,10 +4264,10 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B50" s="28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C50">
         <v>76.3</v>
@@ -4287,10 +4287,10 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C51">
         <v>68.257798170000001</v>
@@ -4310,10 +4310,10 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B52" s="28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C52">
         <v>66.137614679999999</v>
@@ -4333,10 +4333,10 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B53" s="28" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C53">
         <v>64.949541280000005</v>
@@ -4356,10 +4356,10 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B54" s="28" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C54">
         <v>79.695412840000003</v>
@@ -4379,10 +4379,10 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B55" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C55">
         <v>96.30183486</v>
@@ -4402,10 +4402,10 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B56" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C56">
         <v>68.843119270000003</v>
@@ -4425,10 +4425,10 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B57" s="28" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C57">
         <v>64.64311927</v>
@@ -4448,10 +4448,10 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B58" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C58">
         <v>71.166972479999998</v>
@@ -4471,10 +4471,10 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B59" s="28" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C59">
         <v>70.61376147</v>
@@ -4494,10 +4494,10 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B60" s="28" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C60">
         <v>75.491743119999995</v>
@@ -4517,10 +4517,10 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B61" s="28" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C61">
         <v>67.608256879999999</v>
@@ -4540,10 +4540,10 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B62" s="28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C62">
         <v>60.269724770000003</v>
@@ -4563,10 +4563,10 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B63" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C63">
         <v>73.802752290000001</v>
@@ -4586,10 +4586,10 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B64" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C64">
         <v>79.211926610000006</v>
@@ -4609,10 +4609,10 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B65" s="28" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C65">
         <v>68.180733939999996</v>
@@ -4632,10 +4632,10 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B66" s="28" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C66">
         <v>70.838532110000003</v>
@@ -4655,10 +4655,10 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B67" s="28" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C67">
         <v>87.50458716</v>
@@ -4678,10 +4678,10 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B68" s="28" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C68">
         <v>68.389908259999999</v>
@@ -4701,10 +4701,10 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B69" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C69">
         <v>74.645871560000003</v>
@@ -4724,10 +4724,10 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B70" s="28" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C70">
         <v>69.417431190000002</v>
@@ -4747,10 +4747,10 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B71" s="28" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C71">
         <v>76.634862389999995</v>
@@ -4770,10 +4770,10 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B72" s="28" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C72">
         <v>68.911926609999995</v>
@@ -4793,10 +4793,10 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B73" s="28" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C73">
         <v>60.154128440000001</v>
@@ -4816,10 +4816,10 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B74" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C74">
         <v>68.49541284</v>
@@ -4839,10 +4839,10 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B75" s="28" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C75">
         <v>80.812844040000002</v>
@@ -4862,10 +4862,10 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B76" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C76">
         <v>59.015596330000001</v>
@@ -4885,10 +4885,10 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B77" s="28" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C77">
         <v>78.816513760000007</v>
@@ -4908,10 +4908,10 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B78" s="28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C78">
         <v>68.097247710000005</v>
@@ -4931,10 +4931,10 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B79" s="28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C79">
         <v>67.577064219999997</v>
@@ -4954,10 +4954,10 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B80" s="28" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C80">
         <v>72.41100917</v>
@@ -4977,10 +4977,10 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B81" s="28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C81">
         <v>74.631192659999996</v>
@@ -5000,10 +5000,10 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B82" s="28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C82">
         <v>95.067889910000005</v>
@@ -5023,10 +5023,10 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B83" s="28" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C83">
         <v>66.189908259999996</v>
@@ -5046,10 +5046,10 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B84" s="28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C84">
         <v>61.788990830000003</v>
@@ -5069,10 +5069,10 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B85" s="28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C85">
         <v>63.8</v>
@@ -5092,10 +5092,10 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B86" s="28" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C86">
         <v>78.118348620000006</v>
@@ -5115,10 +5115,10 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B87" s="28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C87">
         <v>76.383486239999996</v>
@@ -5138,10 +5138,10 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B88" s="28" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C88">
         <v>74.526605500000002</v>
@@ -5161,10 +5161,10 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B89" s="28" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C89">
         <v>78.954128440000005</v>
@@ -5184,10 +5184,10 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B90" s="28" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C90">
         <v>67.441284400000001</v>
@@ -5207,10 +5207,10 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B91" s="28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C91">
         <v>76.362385320000001</v>
@@ -5230,10 +5230,10 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B92" s="28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C92">
         <v>87.54954128</v>
@@ -5253,10 +5253,10 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B93" s="28" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C93">
         <v>79.13394495</v>
@@ -5276,10 +5276,10 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B94" s="28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C94">
         <v>77.305504589999998</v>
@@ -5299,10 +5299,10 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B95" s="28" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C95">
         <v>70.127522940000006</v>
@@ -5322,10 +5322,10 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B96" s="28" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C96">
         <v>82.577064219999997</v>
@@ -5345,10 +5345,10 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B97" s="28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C97">
         <v>85.035779820000002</v>
@@ -5368,10 +5368,10 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B98" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C98">
         <v>73.666055049999997</v>
@@ -5391,10 +5391,10 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B99" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C99">
         <v>66.774311929999996</v>
@@ -5414,10 +5414,10 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B100" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C100">
         <v>85.000917430000001</v>
@@ -5437,10 +5437,10 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B101" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C101">
         <v>76.855045869999998</v>
@@ -5460,10 +5460,10 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B102" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C102">
         <v>61.869724769999998</v>
@@ -5483,10 +5483,10 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B103" s="28" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C103">
         <v>82.536697250000003</v>
@@ -5506,10 +5506,10 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B104" s="28" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C104">
         <v>64.41100917</v>
@@ -5529,10 +5529,10 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B105" s="28" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C105">
         <v>68.831192659999999</v>
@@ -5552,10 +5552,10 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B106" s="28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C106">
         <v>69.934862390000006</v>
@@ -5575,10 +5575,10 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B107" s="28" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C107">
         <v>82.224770640000003</v>
@@ -5598,10 +5598,10 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B108" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C108">
         <v>82.627522940000006</v>
@@ -5621,10 +5621,10 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B109" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C109">
         <v>61.769724770000003</v>
@@ -5644,10 +5644,10 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B110" s="28" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C110">
         <v>81.347706419999994</v>
@@ -5667,10 +5667,10 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B111" s="28" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C111">
         <v>75.296330280000006</v>
@@ -5690,10 +5690,10 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B112" s="28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C112">
         <v>74.516513759999995</v>
@@ -5713,10 +5713,10 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B113" s="28" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C113">
         <v>68.080733940000002</v>
@@ -5736,10 +5736,10 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B114" s="28" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C114">
         <v>83.871559629999993</v>
@@ -5759,10 +5759,10 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B115" s="28" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C115">
         <v>77.052293579999997</v>
@@ -5782,10 +5782,10 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B116" s="28" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C116">
         <v>73.983486240000005</v>
@@ -5805,10 +5805,10 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B117" s="28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C117">
         <v>73.575229359999994</v>
@@ -5828,10 +5828,10 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B118" s="28" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C118">
         <v>75.38623853</v>
@@ -5851,10 +5851,10 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B119" s="28" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C119">
         <v>76.078899079999999</v>
@@ -5874,10 +5874,10 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B120" s="28" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C120">
         <v>73.311009170000005</v>
@@ -5897,10 +5897,10 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B121" s="28" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C121">
         <v>75.494495409999999</v>
@@ -5920,10 +5920,10 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B122" s="28" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C122">
         <v>73.823853209999996</v>
@@ -5943,10 +5943,10 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B123" s="28" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C123">
         <v>77.205504590000004</v>
@@ -5966,10 +5966,10 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B124" s="28" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C124">
         <v>65.714678899999996</v>
@@ -5989,10 +5989,10 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B125" s="28" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C125">
         <v>64.696330279999998</v>
@@ -6012,10 +6012,10 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B126" s="28" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C126">
         <v>71.299082569999996</v>
@@ -6035,10 +6035,10 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B127" s="28" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C127">
         <v>67.753211010000001</v>
@@ -6058,10 +6058,10 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B128" s="28" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C128">
         <v>84.887155960000001</v>
@@ -6081,10 +6081,10 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B129" s="28" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C129">
         <v>55</v>
@@ -6104,10 +6104,10 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B130" s="28" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C130">
         <v>77.774311929999996</v>
@@ -6127,10 +6127,10 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B131" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C131">
         <v>78.352293579999994</v>
@@ -6150,10 +6150,10 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B132" s="28" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C132">
         <v>81.500917430000001</v>
@@ -6173,10 +6173,10 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B133" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C133">
         <v>79.999082569999999</v>
@@ -6196,10 +6196,10 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B134" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C134">
         <v>79.872477059999994</v>
@@ -6219,10 +6219,10 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B135" s="28" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C135">
         <v>72.178899079999994</v>
@@ -6242,10 +6242,10 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B136" s="28" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C136">
         <v>81.461467889999994</v>
@@ -6265,10 +6265,10 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B137" s="28" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C137">
         <v>75.496330279999995</v>
@@ -6288,10 +6288,10 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B138" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C138">
         <v>65.065137609999994</v>
@@ -6311,10 +6311,10 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B139" s="28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C139">
         <v>72.847706419999994</v>
@@ -6334,10 +6334,10 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B140" s="28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C140">
         <v>66.177981650000007</v>
@@ -6357,10 +6357,10 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B141" s="28" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C141">
         <v>86.253211010000001</v>
@@ -6380,10 +6380,10 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B142" s="28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C142">
         <v>75.455045870000006</v>
@@ -6403,10 +6403,10 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B143" s="28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C143">
         <v>71.751376149999999</v>
@@ -6426,10 +6426,10 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B144" s="28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C144">
         <v>82.142201830000005</v>
@@ -6449,10 +6449,10 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B145" s="28" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C145">
         <v>75.396330280000001</v>
@@ -6472,10 +6472,10 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B146" s="28" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C146">
         <v>71.694495410000002</v>
@@ -6495,10 +6495,10 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B147" s="28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C147">
         <v>68.298165139999995</v>
@@ -6518,10 +6518,10 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B148" s="28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C148">
         <v>71.298165139999995</v>
@@ -6541,10 +6541,10 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B149" s="28" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C149">
         <v>73.644036700000001</v>
@@ -6564,10 +6564,10 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B150" s="28" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C150">
         <v>71.297247709999994</v>
@@ -6587,10 +6587,10 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B151" s="28" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C151">
         <v>73.820183490000005</v>
@@ -6610,10 +6610,10 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B152" s="28" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C152">
         <v>79.622018350000005</v>
@@ -6633,10 +6633,10 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B153" s="28" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C153">
         <v>70.5</v>
@@ -6656,10 +6656,10 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B154" s="28" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C154">
         <v>76.114678900000001</v>
@@ -6679,10 +6679,10 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B155" s="28" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C155">
         <v>77.418348620000003</v>
@@ -6702,10 +6702,10 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B156" s="28" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C156">
         <v>80.900000000000006</v>
@@ -6725,10 +6725,10 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B157" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C157">
         <v>83.126605499999997</v>
@@ -6748,10 +6748,10 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B158" s="28" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C158">
         <v>63.129357800000001</v>
@@ -6771,10 +6771,10 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B159" s="28" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C159">
         <v>75.930275230000007</v>
@@ -6794,10 +6794,10 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B160" s="28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C160">
         <v>71.060550460000002</v>
@@ -6817,10 +6817,10 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B161" s="28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C161">
         <v>79.427522940000003</v>
@@ -6840,10 +6840,10 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B162" s="28" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C162">
         <v>69.733027519999993</v>
@@ -6863,10 +6863,10 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B163" s="28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C163">
         <v>76.156880729999997</v>
@@ -6886,10 +6886,10 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B164" s="28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C164">
         <v>74.897247710000002</v>
@@ -6909,10 +6909,10 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B165" s="28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C165">
         <v>76.078899079999999</v>
@@ -6932,10 +6932,10 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B166" s="28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C166">
         <v>75.045871559999995</v>
@@ -6955,10 +6955,10 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B167" s="28" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C167">
         <v>78.428440370000004</v>
@@ -6978,10 +6978,10 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B168" s="28" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C168">
         <v>75.223853210000001</v>
@@ -7001,10 +7001,10 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B169" s="28" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C169">
         <v>78.63853211</v>
@@ -7024,10 +7024,10 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B170" s="28" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C170">
         <v>68.668807340000001</v>
@@ -7047,10 +7047,10 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B171" s="28" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C171">
         <v>67.375229360000006</v>
@@ -7070,10 +7070,10 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B172" s="28" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C172">
         <v>82.542201829999996</v>
@@ -7093,10 +7093,10 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B173" s="28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C173">
         <v>75.496330279999995</v>
@@ -7116,10 +7116,10 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B174" s="28" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C174">
         <v>72.868807340000004</v>
@@ -7139,10 +7139,10 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B175" s="28" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C175">
         <v>77.512844040000004</v>
@@ -7162,10 +7162,10 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B176" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C176">
         <v>75.223853210000001</v>
@@ -7185,10 +7185,10 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B177" s="28" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C177">
         <v>74.745871559999998</v>
@@ -7208,10 +7208,10 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B178" s="28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C178">
         <v>69.417431190000002</v>
@@ -7231,10 +7231,10 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B179" s="28" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C179">
         <v>69.725688070000004</v>
@@ -7254,10 +7254,10 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B180" s="28" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C180">
         <v>72.792660549999994</v>
@@ -7277,10 +7277,10 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B181" s="28" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C181">
         <v>66.000917430000001</v>
@@ -7300,10 +7300,10 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B182" s="28" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C182">
         <v>77.368807340000004</v>
@@ -7323,10 +7323,10 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B183" s="28" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C183">
         <v>82.503669720000005</v>
@@ -7346,10 +7346,10 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B184" s="28" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C184">
         <v>86.153211010000007</v>
@@ -7369,10 +7369,10 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B185" s="28" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C185">
         <v>83.936697249999995</v>
@@ -7392,10 +7392,10 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B186" s="28" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C186">
         <v>83.100917429999996</v>
@@ -7415,10 +7415,10 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B187" s="28" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C187">
         <v>78.677064220000005</v>
@@ -7438,10 +7438,10 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B188" s="28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C188">
         <v>73.900000000000006</v>
@@ -7461,10 +7461,10 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B189" s="28" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C189">
         <v>92.491743119999995</v>
@@ -7484,10 +7484,10 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B190" s="28" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C190">
         <v>65.106422019999997</v>
@@ -7507,10 +7507,10 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B191" s="28" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C191">
         <v>92.502752290000004</v>
@@ -7530,10 +7530,10 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B192" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C192">
         <v>81.684403669999995</v>
@@ -7553,10 +7553,10 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B193" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C193">
         <v>66.574311929999993</v>
@@ -7576,10 +7576,10 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B194" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C194">
         <v>63.9</v>
@@ -7599,10 +7599,10 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B195" s="28" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C195">
         <v>67.577064219999997</v>
@@ -7622,10 +7622,10 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B196" s="28" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C196">
         <v>65.914678899999998</v>
@@ -7645,10 +7645,10 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B197" s="28" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C197">
         <v>78.849541279999997</v>
@@ -7668,10 +7668,10 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B198" s="28" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C198">
         <v>77.346788989999993</v>
@@ -7691,10 +7691,10 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B199" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C199">
         <v>84.998165139999998</v>
@@ -7714,10 +7714,10 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B200" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C200">
         <v>73.654128439999994</v>
@@ -7737,10 +7737,10 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B201" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C201">
         <v>62.215596329999997</v>
@@ -7760,10 +7760,10 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B202" s="28" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C202">
         <v>83.575229359999994</v>
@@ -7783,10 +7783,10 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B203" s="28" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C203">
         <v>76.516513759999995</v>
@@ -7806,10 +7806,10 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B204" s="28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C204">
         <v>77.457798170000004</v>
@@ -7829,10 +7829,10 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B205" s="28" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C205">
         <v>64.688990829999995</v>
@@ -7852,10 +7852,10 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B206" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C206">
         <v>74.645871560000003</v>
@@ -7875,10 +7875,10 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B207" s="28" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C207">
         <v>78.393577980000003</v>
@@ -7898,10 +7898,10 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B208" s="28" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C208">
         <v>72.397247710000002</v>
@@ -7921,10 +7921,10 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B209" s="28" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C209">
         <v>70.344954130000005</v>
@@ -7944,10 +7944,10 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B210" s="28" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C210">
         <v>93.804587159999997</v>
@@ -7967,10 +7967,10 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B211" s="28" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C211">
         <v>78.193577980000001</v>
@@ -7990,10 +7990,10 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B212" s="28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C212">
         <v>75.954128440000005</v>
@@ -8013,10 +8013,10 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B213" s="28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C213">
         <v>68.967889909999997</v>
@@ -8036,10 +8036,10 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B214" s="28" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C214">
         <v>77.244954129999996</v>
@@ -8059,10 +8059,10 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B215" s="28" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C215">
         <v>68.780733940000005</v>
@@ -8082,10 +8082,10 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B216" s="28" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C216">
         <v>69.517431189999996</v>
@@ -8105,10 +8105,10 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B217" s="28" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C217">
         <v>69.417431190000002</v>
@@ -8128,10 +8128,10 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B218" s="28" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C218">
         <v>79.011009169999994</v>
@@ -8151,10 +8151,10 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B219" s="28" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C219">
         <v>76.52477064</v>
@@ -8174,10 +8174,10 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B220" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C220">
         <v>70.991743119999995</v>
@@ -8197,10 +8197,10 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B221" s="28" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C221">
         <v>70</v>
@@ -8220,10 +8220,10 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B222" s="28" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C222">
         <v>70.938532109999997</v>
@@ -8243,10 +8243,10 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B223" s="28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C223">
         <v>78.566055050000003</v>
@@ -8266,10 +8266,10 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B224" s="28" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C224">
         <v>79.737614679999993</v>
@@ -8289,10 +8289,10 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B225" s="28" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C225">
         <v>69.430275230000007</v>
@@ -8312,10 +8312,10 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B226" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C226">
         <v>79.679816509999995</v>
@@ -8335,10 +8335,10 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B227" s="28" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C227">
         <v>76.205504590000004</v>
@@ -8358,10 +8358,10 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B228" s="28" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C228">
         <v>77.567889910000005</v>
@@ -8381,10 +8381,10 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B229" s="28" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C229">
         <v>68.627522940000006</v>
@@ -8404,10 +8404,10 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B230" s="28" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C230">
         <v>78.121100920000003</v>
@@ -8427,10 +8427,10 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B231" s="28" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C231">
         <v>57.693577980000001</v>
@@ -8450,10 +8450,10 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B232" s="28" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C232">
         <v>76.177981650000007</v>
@@ -8473,10 +8473,10 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B233" s="28" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C233">
         <v>69.498165139999998</v>
@@ -8496,10 +8496,10 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B234" s="28" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C234">
         <v>65.520183489999994</v>
@@ -8519,10 +8519,10 @@
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B235" s="28" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C235">
         <v>60.409174309999997</v>
@@ -8542,10 +8542,10 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B236" s="28" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C236">
         <v>74.997247709999996</v>
@@ -8565,10 +8565,10 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B237" s="28" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C237">
         <v>62.733944950000001</v>
@@ -8588,10 +8588,10 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B238" s="28" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C238">
         <v>74.060550460000002</v>
@@ -8611,10 +8611,10 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B239" s="28" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C239">
         <v>77.105504589999995</v>
@@ -8634,10 +8634,10 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B240" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C240">
         <v>85.031192660000002</v>
@@ -8657,10 +8657,10 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B241" s="28" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C241">
         <v>77.152293580000006</v>
@@ -8680,10 +8680,10 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B242" s="28" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C242">
         <v>64.916513760000001</v>
@@ -8703,10 +8703,10 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B243" s="28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C243">
         <v>70.444954129999999</v>
@@ -8726,10 +8726,10 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B244" s="28" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C244">
         <v>74.644954130000002</v>
@@ -8749,10 +8749,10 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B245" s="28" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C245">
         <v>67.882568809999995</v>
@@ -8772,10 +8772,10 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B246" s="28" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C246">
         <v>72.669724770000002</v>
@@ -8795,10 +8795,10 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B247" s="28" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C247">
         <v>64.52477064</v>
@@ -8818,10 +8818,10 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B248" s="28" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C248">
         <v>82.447706420000003</v>
@@ -8841,10 +8841,10 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B249" s="28" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C249">
         <v>79.204587160000003</v>
@@ -8864,10 +8864,10 @@
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B250" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C250">
         <v>78.954128440000005</v>
@@ -8887,10 +8887,10 @@
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B251" s="28" t="s">
         <v>108</v>
-      </c>
-      <c r="B251" s="28" t="s">
-        <v>109</v>
       </c>
       <c r="C251">
         <v>67.688990829999995</v>
@@ -8910,10 +8910,10 @@
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B252" s="28" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C252">
         <v>72.065137609999994</v>
@@ -8933,10 +8933,10 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B253" s="28" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C253">
         <v>68.400000000000006</v>
@@ -8956,10 +8956,10 @@
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B254" s="28" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C254">
         <v>84.917431190000002</v>
@@ -8979,10 +8979,10 @@
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B255" s="28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C255">
         <v>61.278899080000002</v>
@@ -9002,10 +9002,10 @@
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B256" s="28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C256">
         <v>69.817431189999994</v>
@@ -9025,10 +9025,10 @@
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B257" s="28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C257">
         <v>82.410091739999999</v>
@@ -9048,10 +9048,10 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B258" s="28" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C258">
         <v>56.333027520000002</v>
@@ -9071,10 +9071,10 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B259" s="28" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C259">
         <v>72.21834862</v>
@@ -9094,10 +9094,10 @@
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B260" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C260">
         <v>75.5293578</v>
@@ -9117,10 +9117,10 @@
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B261" s="28" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C261">
         <v>76.065137609999994</v>
@@ -9140,10 +9140,10 @@
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B262" s="28" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C262">
         <v>70.818348619999995</v>
@@ -9163,10 +9163,10 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B263" s="28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C263">
         <v>66.936697249999995</v>
@@ -9186,10 +9186,10 @@
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B264" s="28" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C264">
         <v>75.000917430000001</v>
@@ -9209,10 +9209,10 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B265" s="28" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C265">
         <v>70.5</v>
@@ -9232,10 +9232,10 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B266" s="28" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C266">
         <v>71.966972479999995</v>
@@ -9255,10 +9255,10 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B267" s="28" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C267">
         <v>70.965137609999999</v>
@@ -9278,10 +9278,10 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B268" s="28" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C268">
         <v>73.601834859999997</v>
@@ -9301,10 +9301,10 @@
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B269" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C269">
         <v>84.882568809999995</v>
@@ -9324,10 +9324,10 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B270" s="28" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C270">
         <v>65.814678900000004</v>
@@ -9347,10 +9347,10 @@
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B271" s="28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C271">
         <v>71.018348619999998</v>
@@ -9370,10 +9370,10 @@
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B272" s="28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C272">
         <v>62.306422019999999</v>
@@ -9393,10 +9393,10 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B273" s="28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C273">
         <v>70.489908260000007</v>
@@ -9416,10 +9416,10 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B274" s="28" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C274">
         <v>76.144036700000001</v>
@@ -9439,10 +9439,10 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B275" s="28" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C275">
         <v>75.422935780000003</v>
@@ -9462,10 +9462,10 @@
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B276" s="28" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C276">
         <v>72.761467890000006</v>
@@ -9485,10 +9485,10 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B277" s="28" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C277">
         <v>71.593577980000006</v>
@@ -9508,10 +9508,10 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B278" s="28" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C278">
         <v>81.413761469999997</v>
@@ -9531,10 +9531,10 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B279" s="28" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C279">
         <v>76.775229359999997</v>
@@ -9554,10 +9554,10 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B280" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C280">
         <v>67.980733950000001</v>
@@ -9577,10 +9577,10 @@
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B281" s="28" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C281">
         <v>77.428440370000004</v>
@@ -9600,10 +9600,10 @@
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B282" s="28" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C282">
         <v>83.724770640000003</v>
@@ -9623,10 +9623,10 @@
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B283" s="28" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C283">
         <v>82.395412840000006</v>
@@ -9646,10 +9646,10 @@
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B284" s="28" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C284">
         <v>94.905504590000007</v>
@@ -9669,10 +9669,10 @@
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B285" s="28" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C285">
         <v>60.000917430000001</v>
@@ -9692,10 +9692,10 @@
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B286" s="28" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C286">
         <v>79.760550460000005</v>
@@ -9715,10 +9715,10 @@
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B287" s="28" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C287">
         <v>66.648623850000007</v>
@@ -9738,10 +9738,10 @@
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B288" s="28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C288">
         <v>65.006422020000002</v>
@@ -9761,10 +9761,10 @@
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B289" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C289">
         <v>81.195412840000003</v>
@@ -9784,10 +9784,10 @@
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B290" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C290">
         <v>86.236697250000006</v>
@@ -9807,10 +9807,10 @@
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B291" s="28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C291">
         <v>69.725688070000004</v>
@@ -9830,10 +9830,10 @@
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B292" s="28" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C292">
         <v>92.603669719999999</v>
@@ -9853,10 +9853,10 @@
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B293" s="28" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C293">
         <v>85.104587159999994</v>
@@ -9876,10 +9876,10 @@
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B294" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C294">
         <v>73.875229360000006</v>
@@ -9899,10 +9899,10 @@
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B295" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C295">
         <v>74.191743119999998</v>
@@ -9922,10 +9922,10 @@
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B296" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C296">
         <v>66.177981650000007</v>
@@ -9945,10 +9945,10 @@
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B297" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C297">
         <v>71.200917430000004</v>
@@ -9968,10 +9968,10 @@
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B298" s="28" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C298">
         <v>73.822935779999995</v>
@@ -9991,10 +9991,10 @@
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B299" s="28" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C299">
         <v>62.645871560000003</v>
@@ -10014,10 +10014,10 @@
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B300" s="28" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C300">
         <v>76.652293580000006</v>
@@ -10037,10 +10037,10 @@
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B301" s="28" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C301">
         <v>72.599082569999993</v>
@@ -10060,10 +10060,10 @@
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B302" s="28" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C302">
         <v>71.946788990000002</v>
@@ -10083,10 +10083,10 @@
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B303" s="28" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C303">
         <v>76.355963299999999</v>
@@ -10106,10 +10106,10 @@
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B304" s="28" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C304">
         <v>75.457798170000004</v>
@@ -10129,10 +10129,10 @@
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B305" s="28" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C305">
         <v>74.896330280000001</v>
@@ -10152,10 +10152,10 @@
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B306" s="28" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C306">
         <v>82.418348620000003</v>
@@ -10175,10 +10175,10 @@
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B307" s="28" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C307">
         <v>69.007339450000003</v>
@@ -10198,10 +10198,10 @@
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B308" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C308">
         <v>71.501834860000002</v>
@@ -10221,10 +10221,10 @@
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B309" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C309">
         <v>73.425688070000007</v>
@@ -10244,10 +10244,10 @@
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B310" s="28" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C310">
         <v>64.24770642</v>
@@ -10267,10 +10267,10 @@
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B311" s="28" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C311">
         <v>64.505504590000001</v>
@@ -10290,10 +10290,10 @@
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B312" s="28" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C312">
         <v>79.621100920000003</v>
@@ -10313,10 +10313,10 @@
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B313" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C313">
         <v>66.766055050000006</v>
@@ -10336,10 +10336,10 @@
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B314" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C314">
         <v>70.806422019999999</v>
@@ -10359,10 +10359,10 @@
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B315" s="28" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C315">
         <v>66.690825689999997</v>
@@ -10382,10 +10382,10 @@
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B316" s="28" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C316">
         <v>76.990825689999994</v>
@@ -10405,10 +10405,10 @@
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B317" s="28" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C317">
         <v>75.097247710000005</v>
@@ -10428,10 +10428,10 @@
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B318" s="28" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C318">
         <v>74.755963300000005</v>
@@ -10451,10 +10451,10 @@
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B319" s="28" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C319">
         <v>79.616513760000004</v>
@@ -10474,10 +10474,10 @@
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B320" s="28" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C320">
         <v>62.645871560000003</v>
@@ -10497,10 +10497,10 @@
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B321" s="28" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C321">
         <v>79.399082570000004</v>
@@ -10520,10 +10520,10 @@
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B322" s="28" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C322">
         <v>71.266055050000006</v>
@@ -10543,10 +10543,10 @@
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B323" s="28" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C323">
         <v>75.097247710000005</v>
@@ -10566,10 +10566,10 @@
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B324" s="28" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C324">
         <v>80.160550459999996</v>
@@ -10589,10 +10589,10 @@
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B325" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C325">
         <v>60.907339450000002</v>
@@ -10612,10 +10612,10 @@
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B326" s="28" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C326">
         <v>71.78165138</v>
@@ -10635,10 +10635,10 @@
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B327" s="28" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C327">
         <v>70.397247710000002</v>
@@ -10658,10 +10658,10 @@
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B328" s="28" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C328">
         <v>65.575229359999994</v>
@@ -10681,10 +10681,10 @@
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B329" s="28" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C329">
         <v>69.657798170000007</v>
@@ -10704,10 +10704,10 @@
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B330" s="28" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C330">
         <v>74.845871560000006</v>
@@ -10727,10 +10727,10 @@
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B331" s="28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C331">
         <v>78.744036699999995</v>
@@ -10750,10 +10750,10 @@
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B332" s="28" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C332">
         <v>66.395412840000006</v>
@@ -10773,10 +10773,10 @@
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B333" s="28" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C333">
         <v>70.001834860000002</v>
@@ -10796,10 +10796,10 @@
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B334" s="28" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C334">
         <v>65.187155959999998</v>
@@ -10819,10 +10819,10 @@
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B335" s="28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C335">
         <v>76.177981650000007</v>
@@ -10842,10 +10842,10 @@
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B336" s="28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C336">
         <v>73.69816514</v>
@@ -10865,10 +10865,10 @@
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B337" s="28" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C337">
         <v>72.359633029999998</v>
@@ -10888,10 +10888,10 @@
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B338" s="28" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C338">
         <v>73.540366969999994</v>
@@ -10911,10 +10911,10 @@
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B339" s="28" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C339">
         <v>58.581651379999997</v>
@@ -10934,10 +10934,10 @@
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B340" s="28" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C340">
         <v>76.184403669999995</v>
@@ -10957,10 +10957,10 @@
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B341" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C341">
         <v>83.265137609999996</v>
@@ -10980,10 +10980,10 @@
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B342" s="28" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C342">
         <v>76.446788990000002</v>
@@ -11003,10 +11003,10 @@
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B343" s="28" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C343">
         <v>75.557798169999998</v>
@@ -11026,10 +11026,10 @@
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B344" s="28" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C344">
         <v>67.244954129999996</v>
@@ -11049,10 +11049,10 @@
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B345" s="28" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C345">
         <v>74.160550459999996</v>
@@ -11072,10 +11072,10 @@
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B346" s="28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C346">
         <v>83.713761469999994</v>
@@ -11095,10 +11095,10 @@
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B347" s="28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C347">
         <v>76.828440369999996</v>
@@ -11118,10 +11118,10 @@
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B348" s="28" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C348">
         <v>84.795412839999997</v>
@@ -11141,10 +11141,10 @@
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B349" s="28" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C349">
         <v>67.544036700000007</v>
@@ -11164,10 +11164,10 @@
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B350" s="28" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C350">
         <v>80.403669719999996</v>
@@ -11187,10 +11187,10 @@
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B351" s="28" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C351">
         <v>82.581651379999997</v>
@@ -11210,10 +11210,10 @@
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B352" s="28" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C352">
         <v>81.351376149999993</v>
@@ -11233,10 +11233,10 @@
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B353" s="28" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C353">
         <v>85.089908260000001</v>
@@ -11256,10 +11256,10 @@
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B354" s="28" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C354">
         <v>81.199082570000002</v>
@@ -11279,10 +11279,10 @@
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B355" s="28" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C355">
         <v>79.628440370000007</v>
@@ -11302,10 +11302,10 @@
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B356" s="28" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C356">
         <v>66.548623849999998</v>
@@ -11325,10 +11325,10 @@
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B357" s="28" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C357">
         <v>81.204587160000003</v>
@@ -11348,10 +11348,10 @@
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B358" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C358">
         <v>79.076146789999996</v>
@@ -11371,10 +11371,10 @@
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B359" s="28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C359">
         <v>76.477064220000003</v>
@@ -11394,10 +11394,10 @@
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B360" s="28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C360">
         <v>75.067889910000005</v>
@@ -11417,10 +11417,10 @@
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B361" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C361">
         <v>67.275229359999997</v>
@@ -11440,10 +11440,10 @@
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B362" s="28" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C362">
         <v>63.697247709999999</v>
@@ -11463,10 +11463,10 @@
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B363" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C363">
         <v>67.627522940000006</v>
@@ -11486,10 +11486,10 @@
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B364" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C364">
         <v>60.540366970000001</v>
@@ -11509,10 +11509,10 @@
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B365" s="28" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C365">
         <v>81.398165140000003</v>
@@ -11532,10 +11532,10 @@
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B366" s="28" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C366">
         <v>76.650458720000003</v>
@@ -11555,10 +11555,10 @@
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B367" s="28" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C367">
         <v>74.083486239999999</v>
@@ -11578,10 +11578,10 @@
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B368" s="28" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C368">
         <v>73.051376149999996</v>
@@ -11601,10 +11601,10 @@
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B369" s="28" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C369">
         <v>84.933027519999996</v>
@@ -11624,10 +11624,10 @@
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B370" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C370">
         <v>65.710091739999996</v>
@@ -11647,10 +11647,10 @@
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B371" s="28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C371">
         <v>67.634862389999995</v>
@@ -11670,10 +11670,10 @@
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B372" s="28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C372">
         <v>72.767889909999994</v>
@@ -11693,10 +11693,10 @@
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B373" s="28" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C373">
         <v>67.25229358</v>
@@ -11716,10 +11716,10 @@
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B374" s="28" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C374">
         <v>75.045871559999995</v>
@@ -11739,10 +11739,10 @@
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B375" s="28" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C375">
         <v>78.669724770000002</v>
@@ -11762,10 +11762,10 @@
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B376" s="28" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C376">
         <v>85.031192660000002</v>
@@ -11785,10 +11785,10 @@
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B377" s="28" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C377">
         <v>69.055963300000002</v>
@@ -11808,10 +11808,10 @@
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B378" s="28" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C378">
         <v>85.973394499999998</v>
@@ -11831,10 +11831,10 @@
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B379" s="28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C379">
         <v>69.91559633</v>
@@ -11854,10 +11854,10 @@
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B380" s="28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C380">
         <v>76.716513759999998</v>
@@ -11877,10 +11877,10 @@
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B381" s="28" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C381">
         <v>74.645871560000003</v>
@@ -11900,10 +11900,10 @@
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B382" s="28" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C382">
         <v>66.774311929999996</v>
@@ -11923,10 +11923,10 @@
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B383" s="28" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C383">
         <v>82.444036699999998</v>
@@ -11946,10 +11946,10 @@
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B384" s="28" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C384">
         <v>76.783486240000002</v>
@@ -11969,10 +11969,10 @@
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B385" s="28" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C385">
         <v>84.880733950000007</v>
@@ -11992,10 +11992,10 @@
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B386" s="28" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C386">
         <v>77.774311929999996</v>
@@ -12015,10 +12015,10 @@
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B387" s="28" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C387">
         <v>77.827522939999994</v>
@@ -12038,10 +12038,10 @@
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B388" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C388">
         <v>74.761467890000006</v>
@@ -12061,10 +12061,10 @@
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B389" s="28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C389">
         <v>76.030275230000001</v>
@@ -12084,10 +12084,10 @@
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B390" s="28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C390">
         <v>68.804587159999997</v>
@@ -12107,10 +12107,10 @@
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B391" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C391">
         <v>68.697247709999999</v>
@@ -12130,10 +12130,10 @@
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B392" s="28" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C392">
         <v>86.329357799999997</v>
@@ -12153,10 +12153,10 @@
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B393" s="28" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C393">
         <v>77.305504589999998</v>
@@ -12176,10 +12176,10 @@
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B394" s="28" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C394">
         <v>71.274311929999996</v>
@@ -12199,10 +12199,10 @@
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B395" s="28" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C395">
         <v>74.845871560000006</v>
@@ -12222,10 +12222,10 @@
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B396" s="28" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C396">
         <v>79.400917430000007</v>
@@ -12245,10 +12245,10 @@
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B397" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C397">
         <v>76.355963299999999</v>
@@ -12268,10 +12268,10 @@
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B398" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C398">
         <v>80.154128439999994</v>
@@ -12291,10 +12291,10 @@
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B399" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C399">
         <v>74.229357800000002</v>
@@ -12314,10 +12314,10 @@
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B400" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C400">
         <v>68.730275230000004</v>
@@ -12337,10 +12337,10 @@
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B401" s="28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C401">
         <v>76.168807340000001</v>
@@ -12360,10 +12360,10 @@
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B402" s="28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C402">
         <v>82.790825690000005</v>
@@ -12383,10 +12383,10 @@
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B403" s="28" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C403">
         <v>79.888990829999997</v>
@@ -12406,10 +12406,10 @@
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B404" s="28" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C404">
         <v>70.015596329999994</v>
@@ -12429,10 +12429,10 @@
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B405" s="28" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C405">
         <v>71.601834859999997</v>
@@ -12452,10 +12452,10 @@
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B406" s="28" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C406">
         <v>77.566055050000003</v>
@@ -12475,10 +12475,10 @@
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B407" s="28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C407">
         <v>62.889908259999999</v>
@@ -12498,10 +12498,10 @@
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B408" s="28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C408">
         <v>79.823853209999996</v>
@@ -12521,10 +12521,10 @@
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B409" s="28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C409">
         <v>63.641284400000004</v>
@@ -12544,10 +12544,10 @@
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B410" s="28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C410">
         <v>76.245871559999998</v>
@@ -12567,10 +12567,10 @@
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B411" s="28" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C411">
         <v>76.283486240000002</v>
@@ -12590,10 +12590,10 @@
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B412" s="28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C412">
         <v>84.789908260000004</v>
@@ -12613,10 +12613,10 @@
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B413" s="28" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C413">
         <v>74.745871559999998</v>
@@ -12636,10 +12636,10 @@
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B414" s="28" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C414">
         <v>86.326605499999999</v>
@@ -12659,10 +12659,10 @@
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B415" s="28" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C415">
         <v>75.914678899999998</v>
@@ -12682,10 +12682,10 @@
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B416" s="28" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C416">
         <v>72.58440367</v>
@@ -12705,10 +12705,10 @@
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B417" s="28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C417">
         <v>76.844954130000005</v>
@@ -12728,10 +12728,10 @@
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B418" s="28" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C418">
         <v>62.289908259999997</v>
@@ -12751,10 +12751,10 @@
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B419" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C419">
         <v>71.368807340000004</v>
@@ -12774,10 +12774,10 @@
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B420" s="28" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C420">
         <v>62.022018350000003</v>
@@ -12797,10 +12797,10 @@
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B421" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C421">
         <v>77.205504590000004</v>
@@ -12820,10 +12820,10 @@
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B422" s="28" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C422">
         <v>78.489908260000007</v>
@@ -12843,10 +12843,10 @@
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B423" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C423">
         <v>67.33211009</v>
@@ -12866,10 +12866,10 @@
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B424" s="28" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C424">
         <v>71.103669719999999</v>
@@ -12889,10 +12889,10 @@
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B425" s="28" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C425">
         <v>77.292660549999994</v>
@@ -12912,10 +12912,10 @@
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B426" s="28" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C426">
         <v>83.824770639999997</v>
@@ -12935,10 +12935,10 @@
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B427" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C427">
         <v>75.978899080000005</v>
@@ -12958,10 +12958,10 @@
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B428" s="28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C428">
         <v>90.097247710000005</v>
@@ -12981,10 +12981,10 @@
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B429" s="28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C429">
         <v>69.625688069999995</v>
@@ -13004,10 +13004,10 @@
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B430" s="28" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C430">
         <v>87.311009170000005</v>
@@ -13027,10 +13027,10 @@
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B431" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C431">
         <v>79.22752294</v>
@@ -13050,10 +13050,10 @@
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B432" s="28" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C432">
         <v>86.21834862</v>
@@ -13073,10 +13073,10 @@
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B433" s="28" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C433">
         <v>77.213761469999994</v>
@@ -13096,10 +13096,10 @@
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B434" s="28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C434">
         <v>75.296330280000006</v>
@@ -13119,10 +13119,10 @@
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B435" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C435">
         <v>64.087155960000004</v>
@@ -13142,10 +13142,10 @@
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B436" s="28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C436">
         <v>79.200917430000004</v>
@@ -13165,10 +13165,10 @@
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B437" s="28" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C437">
         <v>78.902752289999995</v>
@@ -13188,10 +13188,10 @@
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B438" s="28" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C438">
         <v>81.202752290000006</v>
@@ -13211,10 +13211,10 @@
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B439" s="28" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C439">
         <v>69.429357800000005</v>
@@ -13234,10 +13234,10 @@
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B440" s="28" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C440">
         <v>78.791743120000007</v>
@@ -13257,10 +13257,10 @@
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B441" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C441">
         <v>70.910091739999999</v>
@@ -13280,10 +13280,10 @@
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B442" s="28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C442">
         <v>82.403669719999996</v>
@@ -13303,10 +13303,10 @@
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B443" s="28" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C443">
         <v>83.592660550000005</v>
@@ -13326,10 +13326,10 @@
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B444" s="28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C444">
         <v>81.200917430000004</v>
@@ -13349,10 +13349,10 @@
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B445" s="28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C445">
         <v>73.902752289999995</v>
@@ -13372,10 +13372,10 @@
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B446" s="28" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C446">
         <v>78.824770639999997</v>
@@ -13395,10 +13395,10 @@
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B447" s="28" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C447">
         <v>82.672477060000006</v>
@@ -13418,10 +13418,10 @@
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B448" s="28" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C448">
         <v>54.221100919999998</v>
@@ -13441,10 +13441,10 @@
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B449" s="28" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C449">
         <v>74.745871559999998</v>
@@ -13464,10 +13464,10 @@
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B450" s="28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C450">
         <v>79.89082569</v>
@@ -13487,10 +13487,10 @@
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B451" s="28" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C451">
         <v>83.981651380000002</v>
@@ -13510,10 +13510,10 @@
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B452" s="28" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C452">
         <v>65.076146789999996</v>
@@ -13533,10 +13533,10 @@
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B453" s="28" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C453">
         <v>84.193577980000001</v>
@@ -13556,10 +13556,10 @@
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B454" s="28" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C454">
         <v>75.347706419999994</v>
@@ -13579,10 +13579,10 @@
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B455" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C455">
         <v>76.136697249999997</v>
@@ -13602,10 +13602,10 @@
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B456" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C456">
         <v>55.062385319999997</v>
@@ -13625,10 +13625,10 @@
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B457" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C457">
         <v>81.882568809999995</v>
@@ -13648,10 +13648,10 @@
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B458" s="28" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C458">
         <v>75.937614679999996</v>
@@ -13671,10 +13671,10 @@
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B459" s="28" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C459">
         <v>63.728440370000001</v>
@@ -13694,10 +13694,10 @@
     </row>
     <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B460" s="28" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C460">
         <v>77.502752290000004</v>
@@ -13717,10 +13717,10 @@
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B461" s="28" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C461">
         <v>67.577064219999997</v>
@@ -13740,10 +13740,10 @@
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B462" s="28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C462">
         <v>72.318348619999995</v>
@@ -13763,10 +13763,10 @@
     </row>
     <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B463" s="28" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C463">
         <v>76.61376147</v>
@@ -13786,10 +13786,10 @@
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B464" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C464">
         <v>88.791743120000007</v>
@@ -13809,10 +13809,10 @@
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B465" s="28" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C465">
         <v>66.420183489999999</v>
@@ -13832,10 +13832,10 @@
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B466" s="28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C466">
         <v>60.028440369999998</v>
@@ -13855,10 +13855,10 @@
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B467" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C467">
         <v>76.537614680000004</v>
@@ -13878,10 +13878,10 @@
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B468" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C468">
         <v>75.357798169999995</v>
@@ -13901,10 +13901,10 @@
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A469" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B469" s="28" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C469">
         <v>82.4706422</v>
@@ -13924,10 +13924,10 @@
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A470" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B470" s="28" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C470">
         <v>72.273394499999995</v>
@@ -13947,10 +13947,10 @@
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A471" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B471" s="28" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C471">
         <v>75.396330280000001</v>
@@ -13970,10 +13970,10 @@
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A472" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B472" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C472">
         <v>83.66788991</v>
@@ -13993,10 +13993,10 @@
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B473" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C473">
         <v>75.557798169999998</v>
@@ -14016,10 +14016,10 @@
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B474" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C474">
         <v>84.898165140000003</v>
@@ -14039,10 +14039,10 @@
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B475" s="28" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C475">
         <v>83.653211010000007</v>
@@ -14062,10 +14062,10 @@
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B476" s="28" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C476">
         <v>76.183486239999993</v>
@@ -14085,10 +14085,10 @@
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B477" s="28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C477">
         <v>86.239449539999995</v>
@@ -14108,10 +14108,10 @@
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B478" s="28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C478">
         <v>77.205504590000004</v>
@@ -14131,10 +14131,10 @@
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B479" s="28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C479">
         <v>86.385321099999999</v>
@@ -14154,10 +14154,10 @@
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B480" s="28" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C480">
         <v>74.645871560000003</v>
@@ -14177,10 +14177,10 @@
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B481" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C481">
         <v>77.151376150000004</v>
@@ -14200,10 +14200,10 @@
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B482" s="28" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C482">
         <v>74.796330280000006</v>
@@ -14223,10 +14223,10 @@
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B483" s="28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C483">
         <v>75.370642200000006</v>
@@ -14246,10 +14246,10 @@
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B484" s="28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C484">
         <v>83.295412839999997</v>
@@ -14269,10 +14269,10 @@
     </row>
     <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B485" s="28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C485">
         <v>75.044954129999994</v>
@@ -14292,10 +14292,10 @@
     </row>
     <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B486" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C486">
         <v>79.881651379999994</v>
@@ -14315,10 +14315,10 @@
     </row>
     <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B487" s="28" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C487">
         <v>48.675229360000003</v>
@@ -14338,10 +14338,10 @@
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B488" s="28" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C488">
         <v>73.002752290000004</v>
@@ -14361,10 +14361,10 @@
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B489" s="28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C489">
         <v>74.256880730000006</v>
@@ -14384,10 +14384,10 @@
     </row>
     <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B490" s="28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C490">
         <v>75.466055049999994</v>
@@ -14407,10 +14407,10 @@
     </row>
     <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B491" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C491">
         <v>81.805504589999998</v>
@@ -14430,10 +14430,10 @@
     </row>
     <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B492" s="28" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C492">
         <v>76.094495409999993</v>
@@ -14453,10 +14453,10 @@
     </row>
     <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B493" s="28" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C493">
         <v>76.383486239999996</v>
@@ -14476,10 +14476,10 @@
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B494" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C494">
         <v>66.967889909999997</v>
@@ -14499,10 +14499,10 @@
     </row>
     <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B495" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C495">
         <v>56.764220180000002</v>
@@ -14522,10 +14522,10 @@
     </row>
     <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B496" s="28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C496">
         <v>87.28165138</v>
@@ -14545,10 +14545,10 @@
     </row>
     <row r="497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A497" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B497" s="28" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C497">
         <v>82.625688069999995</v>
@@ -14568,10 +14568,10 @@
     </row>
     <row r="498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A498" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B498" s="28" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C498">
         <v>75</v>
@@ -14591,10 +14591,10 @@
     </row>
     <row r="499" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A499" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B499" s="28" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C499">
         <v>81.794495409999996</v>
@@ -14614,10 +14614,10 @@
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B500" s="28" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C500">
         <v>64.720183489999997</v>
@@ -14637,10 +14637,10 @@
     </row>
     <row r="501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A501" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B501" s="28" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C501">
         <v>84.912844039999996</v>
@@ -14689,8 +14689,8 @@
   </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14700,30 +14700,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>525</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2">
         <v>21</v>
@@ -14737,13 +14737,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>528</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>529</v>
       </c>
       <c r="D3" s="2">
         <v>157</v>
@@ -14827,7 +14827,7 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -14850,7 +14850,7 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
@@ -14873,7 +14873,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -14887,16 +14887,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" t="s">
         <v>65</v>
       </c>
-      <c r="B5" t="s">
-        <v>66</v>
-      </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -14937,10 +14937,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>73</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
